--- a/Pricing Template.xlsx
+++ b/Pricing Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waldojaquith/Desktop/nga-moving-target-indicator-modernization-software/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="28800" windowHeight="13890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21660" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Total Proposed Price" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,15 @@
     <sheet name="OPTION PERIOD 1" sheetId="3" r:id="rId3"/>
     <sheet name="OPTION PERIOD 2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,9 +56,6 @@
     <t>Option Period 2</t>
   </si>
   <si>
-    <t>Important: This is the single dolla figure that you are submitting as your price quote.</t>
-  </si>
-  <si>
     <t>BASE PERIOD - 6 MONTHS</t>
   </si>
   <si>
@@ -76,12 +84,15 @@
   </si>
   <si>
     <t>OPTION PERIOD 2 - 6 MONTHS</t>
+  </si>
+  <si>
+    <t>Important: This is the single dollar figure that you are submitting as your price quote.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -142,16 +153,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -160,7 +171,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,6 +201,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,44 +246,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,37 +532,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -561,131 +572,131 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <f>SUM('BASE PERIOD'!D11)</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>SUM('OPTION PERIOD 1'!D11)</f>
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>SUM('OPTION PERIOD 2'!D11)</f>
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
@@ -702,136 +713,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="20.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
@@ -851,132 +862,132 @@
       <selection activeCell="E20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="20.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -996,132 +1007,132 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="20.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
